--- a/ThaumAge/Assets/Data/Excel/excel_book_model.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>content</t>
   </si>
   <si>
+    <t>background</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -43,19 +46,31 @@
     <t>内容</t>
   </si>
   <si>
+    <t>背景</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>名字</t>
   </si>
   <si>
+    <t>ui_sky_1</t>
+  </si>
+  <si>
     <t>基础学</t>
   </si>
   <si>
+    <t>ui_sky_2</t>
+  </si>
+  <si>
     <t>炼金术</t>
   </si>
   <si>
     <t>Alchemy</t>
+  </si>
+  <si>
+    <t>ui_sky_3</t>
   </si>
   <si>
     <t>神秘学</t>
@@ -70,8 +85,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -84,19 +99,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -106,7 +143,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -115,6 +152,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,53 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,33 +189,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,19 +251,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,19 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,67 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,55 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +449,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +484,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -487,17 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,17 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,19 +1044,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="2" max="3" width="47.625" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,83 +1072,104 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -61,22 +61,49 @@
     <t>基础学</t>
   </si>
   <si>
+    <t>Fundamentals</t>
+  </si>
+  <si>
+    <t>神秘学</t>
+  </si>
+  <si>
+    <t>Auromancy</t>
+  </si>
+  <si>
+    <t>炼金术</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
     <t>ui_sky_2</t>
   </si>
   <si>
-    <t>炼金术</t>
-  </si>
-  <si>
-    <t>Alchemy</t>
+    <t>傀儡学</t>
+  </si>
+  <si>
+    <t>Golemancy</t>
   </si>
   <si>
     <t>ui_sky_3</t>
   </si>
   <si>
-    <t>神秘学</t>
-  </si>
-  <si>
-    <t>傀儡学</t>
+    <t>注魔术</t>
+  </si>
+  <si>
+    <t>ArcaneInfusion</t>
+  </si>
+  <si>
+    <t>魔械学</t>
+  </si>
+  <si>
+    <t>Artifice</t>
+  </si>
+  <si>
+    <t>邪术学</t>
+  </si>
+  <si>
+    <t>Eldritch</t>
   </si>
 </sst>
 </file>
@@ -84,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,14 +126,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,12 +148,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -134,11 +215,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,24 +231,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,68 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,37 +278,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,145 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,21 +482,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -480,26 +492,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,9 +513,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,16 +1071,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="47.625" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1127,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1135,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1149,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1163,13 +1191,55 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:6">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23430" windowHeight="12105"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="BookModelInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -64,19 +64,25 @@
     <t>Fundamentals</t>
   </si>
   <si>
+    <t>ui_sky_2</t>
+  </si>
+  <si>
     <t>神秘学</t>
   </si>
   <si>
     <t>Auromancy</t>
   </si>
   <si>
+    <t>ui_sky_3</t>
+  </si>
+  <si>
     <t>炼金术</t>
   </si>
   <si>
     <t>Alchemy</t>
   </si>
   <si>
-    <t>ui_sky_2</t>
+    <t>ui_sky_4</t>
   </si>
   <si>
     <t>傀儡学</t>
@@ -85,7 +91,7 @@
     <t>Golemancy</t>
   </si>
   <si>
-    <t>ui_sky_3</t>
+    <t>ui_sky_5</t>
   </si>
   <si>
     <t>注魔术</t>
@@ -94,10 +100,16 @@
     <t>ArcaneInfusion</t>
   </si>
   <si>
+    <t>ui_sky_6</t>
+  </si>
+  <si>
     <t>魔械学</t>
   </si>
   <si>
     <t>Artifice</t>
+  </si>
+  <si>
+    <t>ui_sky_7</t>
   </si>
   <si>
     <t>邪术学</t>
@@ -111,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -126,14 +138,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,82 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -231,6 +228,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -240,7 +246,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,22 +276,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,15 +481,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,10 +516,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -527,15 +528,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +561,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,16 +601,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,115 +619,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,7 +1086,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1163,13 +1175,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1177,13 +1189,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1191,13 +1203,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:6">
@@ -1205,13 +1217,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1219,13 +1231,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1233,13 +1245,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_book_model.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_book_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="20625" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="BookModelInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>background</t>
   </si>
   <si>
+    <t>unlock_model_details_id</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>背景</t>
   </si>
   <si>
+    <t>解锁模块详情id(用&amp;分割)</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -82,6 +88,15 @@
     <t>Alchemy</t>
   </si>
   <si>
+    <t>ui_sky_5</t>
+  </si>
+  <si>
+    <t>注魔术</t>
+  </si>
+  <si>
+    <t>ArcaneInfusion</t>
+  </si>
+  <si>
     <t>ui_sky_4</t>
   </si>
   <si>
@@ -89,15 +104,6 @@
   </si>
   <si>
     <t>Golemancy</t>
-  </si>
-  <si>
-    <t>ui_sky_5</t>
-  </si>
-  <si>
-    <t>注魔术</t>
-  </si>
-  <si>
-    <t>ArcaneInfusion</t>
   </si>
   <si>
     <t>ui_sky_6</t>
@@ -1083,20 +1089,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="3" width="47.625" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="2" max="4" width="47.625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,146 +1121,176 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>111001</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>999999</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>999999</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:6">
+    <row r="8" ht="15" customHeight="1" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>999999</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>999999</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>999999</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:G10">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
